--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Il18rap</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.855689333333334</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H2">
         <v>11.567068</v>
       </c>
       <c r="I2">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="J2">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1125586666666667</v>
+        <v>0.08675100000000001</v>
       </c>
       <c r="N2">
-        <v>0.337676</v>
+        <v>0.260253</v>
       </c>
       <c r="O2">
-        <v>0.08976149178944291</v>
+        <v>0.2009041159973413</v>
       </c>
       <c r="P2">
-        <v>0.08976149178944291</v>
+        <v>0.2009041159973413</v>
       </c>
       <c r="Q2">
-        <v>0.433991250440889</v>
+        <v>0.334484905356</v>
       </c>
       <c r="R2">
-        <v>3.905921253968001</v>
+        <v>3.010364148204</v>
       </c>
       <c r="S2">
-        <v>0.01203164068956922</v>
+        <v>0.03040307191641172</v>
       </c>
       <c r="T2">
-        <v>0.01203164068956922</v>
+        <v>0.03040307191641173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.855689333333334</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H3">
         <v>11.567068</v>
       </c>
       <c r="I3">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="J3">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7803406666666667</v>
+        <v>0.3450520000000001</v>
       </c>
       <c r="N3">
-        <v>2.341022</v>
+        <v>1.035156</v>
       </c>
       <c r="O3">
-        <v>0.622293639559534</v>
+        <v>0.7990958840026586</v>
       </c>
       <c r="P3">
-        <v>0.622293639559534</v>
+        <v>0.7990958840026586</v>
       </c>
       <c r="Q3">
-        <v>3.008751184832889</v>
+        <v>1.330413315845334</v>
       </c>
       <c r="R3">
-        <v>27.078760663496</v>
+        <v>11.973719842608</v>
       </c>
       <c r="S3">
-        <v>0.08341231106260646</v>
+        <v>0.1209281826250037</v>
       </c>
       <c r="T3">
-        <v>0.08341231106260646</v>
+        <v>0.1209281826250038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.855689333333334</v>
+        <v>5.360192666666666</v>
       </c>
       <c r="H4">
-        <v>11.567068</v>
+        <v>16.080578</v>
       </c>
       <c r="I4">
-        <v>0.1340401150840085</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="J4">
-        <v>0.1340401150840085</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3610756666666666</v>
+        <v>0.08675100000000001</v>
       </c>
       <c r="N4">
-        <v>1.083227</v>
+        <v>0.260253</v>
       </c>
       <c r="O4">
-        <v>0.287944868651023</v>
+        <v>0.2009041159973413</v>
       </c>
       <c r="P4">
-        <v>0.287944868651023</v>
+        <v>0.2009041159973413</v>
       </c>
       <c r="Q4">
-        <v>1.392195596492889</v>
+        <v>0.465002074026</v>
       </c>
       <c r="R4">
-        <v>12.529760368436</v>
+        <v>4.185018666234</v>
       </c>
       <c r="S4">
-        <v>0.03859616333183285</v>
+        <v>0.0422664558893808</v>
       </c>
       <c r="T4">
-        <v>0.03859616333183285</v>
+        <v>0.04226645588938081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.903429</v>
+        <v>5.360192666666666</v>
       </c>
       <c r="H5">
-        <v>8.710287000000001</v>
+        <v>16.080578</v>
       </c>
       <c r="I5">
-        <v>0.1009355068972313</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="J5">
-        <v>0.1009355068972313</v>
+        <v>0.2103812342497758</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1125586666666667</v>
+        <v>0.3450520000000001</v>
       </c>
       <c r="N5">
-        <v>0.337676</v>
+        <v>1.035156</v>
       </c>
       <c r="O5">
-        <v>0.08976149178944291</v>
+        <v>0.7990958840026586</v>
       </c>
       <c r="P5">
-        <v>0.08976149178944291</v>
+        <v>0.7990958840026586</v>
       </c>
       <c r="Q5">
-        <v>0.3268060970013335</v>
+        <v>1.849545200018667</v>
       </c>
       <c r="R5">
-        <v>2.941254873012001</v>
+        <v>16.645906800168</v>
       </c>
       <c r="S5">
-        <v>0.009060121673619087</v>
+        <v>0.168114778360395</v>
       </c>
       <c r="T5">
-        <v>0.009060121673619087</v>
+        <v>0.168114778360395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -785,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.903429</v>
+        <v>16.26259133333333</v>
       </c>
       <c r="H6">
-        <v>8.710287000000001</v>
+        <v>48.787774</v>
       </c>
       <c r="I6">
-        <v>0.1009355068972313</v>
+        <v>0.6382875112088087</v>
       </c>
       <c r="J6">
-        <v>0.1009355068972313</v>
+        <v>0.6382875112088088</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7803406666666667</v>
+        <v>0.08675100000000001</v>
       </c>
       <c r="N6">
-        <v>2.341022</v>
+        <v>0.260253</v>
       </c>
       <c r="O6">
-        <v>0.622293639559534</v>
+        <v>0.2009041159973413</v>
       </c>
       <c r="P6">
-        <v>0.622293639559534</v>
+        <v>0.2009041159973413</v>
       </c>
       <c r="Q6">
-        <v>2.265663721479334</v>
+        <v>1.410796060758</v>
       </c>
       <c r="R6">
-        <v>20.390973493314</v>
+        <v>12.697164546822</v>
       </c>
       <c r="S6">
-        <v>0.06281152394786452</v>
+        <v>0.1282345881915488</v>
       </c>
       <c r="T6">
-        <v>0.06281152394786452</v>
+        <v>0.1282345881915488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.903429</v>
+        <v>16.26259133333333</v>
       </c>
       <c r="H7">
-        <v>8.710287000000001</v>
+        <v>48.787774</v>
       </c>
       <c r="I7">
-        <v>0.1009355068972313</v>
+        <v>0.6382875112088087</v>
       </c>
       <c r="J7">
-        <v>0.1009355068972313</v>
+        <v>0.6382875112088088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3610756666666666</v>
+        <v>0.3450520000000001</v>
       </c>
       <c r="N7">
-        <v>1.083227</v>
+        <v>1.035156</v>
       </c>
       <c r="O7">
-        <v>0.287944868651023</v>
+        <v>0.7990958840026586</v>
       </c>
       <c r="P7">
-        <v>0.287944868651023</v>
+        <v>0.7990958840026586</v>
       </c>
       <c r="Q7">
-        <v>1.048357561794333</v>
+        <v>5.611439664749335</v>
       </c>
       <c r="R7">
-        <v>9.435218056149001</v>
+        <v>50.50295698274401</v>
       </c>
       <c r="S7">
-        <v>0.0290638612757477</v>
+        <v>0.5100529230172598</v>
       </c>
       <c r="T7">
-        <v>0.0290638612757477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>22.00607133333333</v>
-      </c>
-      <c r="H8">
-        <v>66.018214</v>
-      </c>
-      <c r="I8">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="J8">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.1125586666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.337676</v>
-      </c>
-      <c r="O8">
-        <v>0.08976149178944291</v>
-      </c>
-      <c r="P8">
-        <v>0.08976149178944291</v>
-      </c>
-      <c r="Q8">
-        <v>2.476974047851556</v>
-      </c>
-      <c r="R8">
-        <v>22.292766430664</v>
-      </c>
-      <c r="S8">
-        <v>0.0686697294262546</v>
-      </c>
-      <c r="T8">
-        <v>0.0686697294262546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>22.00607133333333</v>
-      </c>
-      <c r="H9">
-        <v>66.018214</v>
-      </c>
-      <c r="I9">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="J9">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.7803406666666667</v>
-      </c>
-      <c r="N9">
-        <v>2.341022</v>
-      </c>
-      <c r="O9">
-        <v>0.622293639559534</v>
-      </c>
-      <c r="P9">
-        <v>0.622293639559534</v>
-      </c>
-      <c r="Q9">
-        <v>17.17223237496756</v>
-      </c>
-      <c r="R9">
-        <v>154.550091374708</v>
-      </c>
-      <c r="S9">
-        <v>0.476069804549063</v>
-      </c>
-      <c r="T9">
-        <v>0.476069804549063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>22.00607133333333</v>
-      </c>
-      <c r="H10">
-        <v>66.018214</v>
-      </c>
-      <c r="I10">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="J10">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.3610756666666666</v>
-      </c>
-      <c r="N10">
-        <v>1.083227</v>
-      </c>
-      <c r="O10">
-        <v>0.287944868651023</v>
-      </c>
-      <c r="P10">
-        <v>0.287944868651023</v>
-      </c>
-      <c r="Q10">
-        <v>7.945856877397556</v>
-      </c>
-      <c r="R10">
-        <v>71.512711896578</v>
-      </c>
-      <c r="S10">
-        <v>0.2202848440434425</v>
-      </c>
-      <c r="T10">
-        <v>0.2202848440434425</v>
+        <v>0.5100529230172599</v>
       </c>
     </row>
   </sheetData>
